--- a/1-s2.0-S2352939317300374-mmc1.xlsx
+++ b/1-s2.0-S2352939317300374-mmc1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C1A224-1B64-458B-A023-5951408A59F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4324346F-0163-4525-9654-F74AA703E08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data overview" sheetId="4" r:id="rId1"/>
@@ -2940,9 +2940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12923,8 +12923,8 @@
   <dimension ref="A1:AA676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A664" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40322,7 +40322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA676"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A657" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/1-s2.0-S2352939317300374-mmc1.xlsx
+++ b/1-s2.0-S2352939317300374-mmc1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4324346F-0163-4525-9654-F74AA703E08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCE2B63-02B4-4920-9AF9-5AA12BFDE3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data overview" sheetId="4" r:id="rId1"/>
@@ -12922,9 +12922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA676"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A664" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B374" sqref="B374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40322,7 +40322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A657" workbookViewId="0">
+    <sheetView topLeftCell="A656" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
